--- a/etf_dfs/KWT.xlsx
+++ b/etf_dfs/KWT.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>KWT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,525 +426,613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>KWT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>26.44400024414062</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>26.44400024414062</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>26.44400024414062</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>26.44400024414062</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>24.52716827392578</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>26.05999946594238</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26.05999946594238</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>26.04299926757812</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>26.04299926757812</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>24.15523338317871</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>300</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>-0.01516415719483866</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>26.54000091552734</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>26.29999923706055</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>26.38999938964844</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>24.47708129882812</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>42400</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.01332412286715012</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.02014425601617378</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>27.33799934387207</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>27.33799934387207</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>27.33799934387207</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>27.33799934387207</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>25.35636520385742</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.03592269708787832</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.02559994901753916</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>28.61000061035156</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>28.61000061035156</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>28.51399993896484</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>28.51399993896484</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>26.44712066650391</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>900</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.04301706867062238</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.02621895071644014</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>27.97999954223633</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>28.02000045776367</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>27.73999977111816</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>27.98999977111816</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>25.96110343933105</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>77600</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.01837694357046782</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.02826849469313475</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>28.81999969482422</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>28.96599960327148</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>28.81999969482422</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>28.96599960327148</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>26.86635589599609</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>500</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.03486959057285954</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.02698914767680841</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>30.95000076293945</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>30.95000076293945</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>30.8799991607666</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>30.9379997253418</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>28.69541168212891</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>3900</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.06807982286403091</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.03163033657021471</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>31.67000007629395</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>31.67000007629395</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>31.51099967956543</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>31.51099967956543</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>29.22687721252441</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>300</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.0185209114781355</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.02932864125516533</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>32.09000015258789</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>32.09000015258789</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>31.76499938964844</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>31.76499938964844</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>29.92801666259766</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>300</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.008060668105294155</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.02785483087242947</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>32.65999984741211</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>32.65999984741211</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>32.6510009765625</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>32.6510009765625</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>30.76278114318848</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>300</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.02789238482412171</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.02635425777991413</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>33.95999908447266</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>34.06999969482422</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>33.90999984741211</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>34.06999969482422</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>32.0997200012207</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>5100</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.04345957783286036</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.02585486884610743</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>34.09000015258789</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>34.20999908447266</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>34.06000137329102</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>34.11999893188477</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>32.14682769775391</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>2800</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.001467544394141651</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.02546617853759016</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.2902737338101848</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.2902737338101848</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>35.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>35.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>35.40999984741211</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>35.41999816894531</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>33.37164688110352</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>6200</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.03810079946531619</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.02479984506568709</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.3600583329524933</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0.3600583329524933</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>34.04999923706055</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>34.13999938964844</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>33.70999908447266</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>33.75</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>31.7982234954834</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>24600</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.04714845441210369</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.03032066070669037</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.2788935498512572</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.2788935498512572</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.01777773256655091</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.03064343797564744</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>0.212597934066072</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>0.212597934066072</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B18" t="n">
+        <v>33.21699905395508</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33.21699905395508</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.21699905395508</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33.21699905395508</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33.21699905395508</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.002021041477897612</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02979884669544244</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1649364917253686</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1649364917253686</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>